--- a/data/raw/Check List Actividades PF - ML.xlsx
+++ b/data/raw/Check List Actividades PF - ML.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salva\Desktop\my_ml_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salva\Documents\GitHub\ml_default_credit_card_clients\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E10B4DD-D1A0-4D7B-B12E-812322677D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0179E4E-6BAF-48D9-B6DA-E61113067938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{67AF5B1A-1E2B-4CAA-9A64-6693CB82A0D1}"/>
   </bookViews>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3614DB83-2EAA-491F-9B2C-AF13CF2011A9}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B6" sqref="A6:B13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -650,7 +650,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/raw/Check List Actividades PF - ML.xlsx
+++ b/data/raw/Check List Actividades PF - ML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salva\Documents\GitHub\ml_default_credit_card_clients\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0179E4E-6BAF-48D9-B6DA-E61113067938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87D5F88-2B45-4A92-A94B-FE0C6F0C7371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{67AF5B1A-1E2B-4CAA-9A64-6693CB82A0D1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Github</t>
   </si>
@@ -121,31 +121,6 @@
   </si>
   <si>
     <t>Análisis univariante</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Numéricos:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> histogramas, boxplots, estadísticos (media, mediana, desv. estándar, skewness, kurtosis).</t>
-    </r>
   </si>
   <si>
     <r>
@@ -202,12 +177,57 @@
   <si>
     <t>Renombrar variables</t>
   </si>
+  <si>
+    <t>Avance</t>
+  </si>
+  <si>
+    <t>Total actividades</t>
+  </si>
+  <si>
+    <t>Avance %</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Numéricos:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> histogramas, boxplots, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>estadísticos (media, mediana, desv. estándar, skewness, kurtosis).</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +260,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -258,10 +293,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -275,11 +311,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -302,11 +408,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8943705F-C6D8-4865-AA83-51A9FFC69472}" name="Tabla1" displayName="Tabla1" ref="A1:B40" totalsRowShown="0">
-  <autoFilter ref="A1:B40" xr:uid="{8943705F-C6D8-4865-AA83-51A9FFC69472}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{237A710D-016B-4979-9DA7-41FFFD27973E}" name="Actividades" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{0838B906-08D4-41C1-BF83-F676F0BED85A}" name="Estatus" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8943705F-C6D8-4865-AA83-51A9FFC69472}" name="Tabla1" displayName="Tabla1" ref="A1:E41" totalsRowCount="1">
+  <autoFilter ref="A1:E40" xr:uid="{8943705F-C6D8-4865-AA83-51A9FFC69472}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{237A710D-016B-4979-9DA7-41FFFD27973E}" name="Actividades" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{0838B906-08D4-41C1-BF83-F676F0BED85A}" name="Estatus" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{91E29D4E-59B1-4C8A-8940-0F901C526952}" name="Avance" totalsRowFunction="custom" dataDxfId="4">
+      <calculatedColumnFormula>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</calculatedColumnFormula>
+      <totalsRowFormula>+SUM(Tabla1[Avance])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{56694461-29B6-4DEB-B183-B64D7B410F39}" name="Total actividades" totalsRowFunction="custom">
+      <totalsRowFormula>+SUM(Tabla1[Total actividades])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B16F3491-FCB9-44DB-97FD-F594D944B4BB}" name="Avance %" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="0" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</calculatedColumnFormula>
+      <totalsRowFormula>Tabla1[[#Totals],[Avance]]/Tabla1[[#Totals],[Total actividades]]</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -609,336 +726,792 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3614DB83-2EAA-491F-9B2C-AF13CF2011A9}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="6"/>
+    <col min="3" max="3" width="9.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C15">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="B16" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C16">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C17">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="B18" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C18">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C19">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C20">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C21">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="B22" s="6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C25">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C26">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="B27" s="6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B33" s="6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="6">
         <v>-1</v>
+      </c>
+      <c r="C40">
+        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="7">
+        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="C41">
+        <f>+SUM(Tabla1[Avance])</f>
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <f>+SUM(Tabla1[Total actividades])</f>
+        <v>39</v>
+      </c>
+      <c r="E41" s="8">
+        <f>Tabla1[[#Totals],[Avance]]/Tabla1[[#Totals],[Total actividades]]</f>
+        <v>0.28205128205128205</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/Check List Actividades PF - ML.xlsx
+++ b/data/raw/Check List Actividades PF - ML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salva\Documents\GitHub\ml_default_credit_card_clients\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87D5F88-2B45-4A92-A94B-FE0C6F0C7371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED1EA22-125B-4F31-9C28-A7D8B49146CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{67AF5B1A-1E2B-4CAA-9A64-6693CB82A0D1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Github</t>
   </si>
@@ -67,12 +67,6 @@
   </si>
   <si>
     <t>requeriments.yml</t>
-  </si>
-  <si>
-    <t>Clustering (opcional)</t>
-  </si>
-  <si>
-    <t>NPL (opcional)</t>
   </si>
   <si>
     <t>Baseline</t>
@@ -192,7 +186,6 @@
         <b/>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -203,23 +196,11 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> histogramas, boxplots, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>estadísticos (media, mediana, desv. estándar, skewness, kurtosis).</t>
+      <t xml:space="preserve"> histogramas, boxplots, estadísticos (media, mediana, desv. estándar, skewness, kurtosis).</t>
     </r>
   </si>
 </sst>
@@ -227,7 +208,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,7 +251,14 @@
     <font>
       <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -297,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -316,6 +304,9 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -408,8 +399,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8943705F-C6D8-4865-AA83-51A9FFC69472}" name="Tabla1" displayName="Tabla1" ref="A1:E41" totalsRowCount="1">
-  <autoFilter ref="A1:E40" xr:uid="{8943705F-C6D8-4865-AA83-51A9FFC69472}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8943705F-C6D8-4865-AA83-51A9FFC69472}" name="Tabla1" displayName="Tabla1" ref="A1:E39" totalsRowCount="1">
+  <autoFilter ref="A1:E38" xr:uid="{8943705F-C6D8-4865-AA83-51A9FFC69472}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{237A710D-016B-4979-9DA7-41FFFD27973E}" name="Actividades" dataDxfId="6" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{0838B906-08D4-41C1-BF83-F676F0BED85A}" name="Estatus" dataDxfId="5" totalsRowDxfId="1"/>
@@ -726,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3614DB83-2EAA-491F-9B2C-AF13CF2011A9}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,13 +740,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -798,7 +789,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
@@ -820,23 +811,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="7">
         <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
@@ -855,7 +846,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
@@ -874,7 +865,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
@@ -893,7 +884,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
@@ -912,7 +903,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
@@ -931,7 +922,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
@@ -950,7 +941,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
@@ -969,7 +960,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -988,159 +979,159 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="7">
         <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>43</v>
+      <c r="A15" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B15" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="7">
         <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="7">
         <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="7">
         <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="7">
         <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="7">
         <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="7">
         <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" s="7">
         <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" s="6">
         <v>-1</v>
@@ -1159,44 +1150,44 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B23" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="7">
         <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B24" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="7">
         <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="6">
@@ -1216,7 +1207,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B26" s="6">
         <v>-1</v>
@@ -1234,8 +1225,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>38</v>
+      <c r="A27" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B27" s="6">
         <v>-1</v>
@@ -1254,7 +1245,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" s="6">
         <v>-1</v>
@@ -1273,7 +1264,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B29" s="6">
         <v>-1</v>
@@ -1292,7 +1283,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B30" s="6">
         <v>-1</v>
@@ -1310,8 +1301,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>7</v>
+      <c r="A31" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B31" s="6">
         <v>-1</v>
@@ -1329,8 +1320,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>8</v>
+      <c r="A32" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B32" s="6">
         <v>-1</v>
@@ -1424,8 +1415,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>18</v>
+      <c r="A37" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B37" s="6">
         <v>-1</v>
@@ -1443,8 +1434,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>19</v>
+      <c r="A38" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B38" s="6">
         <v>-1</v>
@@ -1462,56 +1453,18 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="6">
-        <v>-1</v>
-      </c>
+      <c r="A39" s="1"/>
       <c r="C39">
-        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
+        <f>+SUM(Tabla1[Avance])</f>
+        <v>22</v>
       </c>
       <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" s="7">
-        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="6">
-        <v>-1</v>
-      </c>
-      <c r="C40">
-        <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" s="7">
-        <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="C41">
-        <f>+SUM(Tabla1[Avance])</f>
-        <v>11</v>
-      </c>
-      <c r="D41">
         <f>+SUM(Tabla1[Total actividades])</f>
-        <v>39</v>
-      </c>
-      <c r="E41" s="8">
+        <v>37</v>
+      </c>
+      <c r="E39" s="8">
         <f>Tabla1[[#Totals],[Avance]]/Tabla1[[#Totals],[Total actividades]]</f>
-        <v>0.28205128205128205</v>
+        <v>0.59459459459459463</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/Check List Actividades PF - ML.xlsx
+++ b/data/raw/Check List Actividades PF - ML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salva\Documents\GitHub\ml_default_credit_card_clients\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED1EA22-125B-4F31-9C28-A7D8B49146CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18472B6E-9C6D-4A3E-8858-A7F37AD5908A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{67AF5B1A-1E2B-4CAA-9A64-6693CB82A0D1}"/>
   </bookViews>
@@ -335,27 +335,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -381,6 +360,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b/>
       </font>
@@ -402,16 +402,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8943705F-C6D8-4865-AA83-51A9FFC69472}" name="Tabla1" displayName="Tabla1" ref="A1:E39" totalsRowCount="1">
   <autoFilter ref="A1:E38" xr:uid="{8943705F-C6D8-4865-AA83-51A9FFC69472}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{237A710D-016B-4979-9DA7-41FFFD27973E}" name="Actividades" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{0838B906-08D4-41C1-BF83-F676F0BED85A}" name="Estatus" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{91E29D4E-59B1-4C8A-8940-0F901C526952}" name="Avance" totalsRowFunction="custom" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{237A710D-016B-4979-9DA7-41FFFD27973E}" name="Actividades" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{0838B906-08D4-41C1-BF83-F676F0BED85A}" name="Estatus" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{91E29D4E-59B1-4C8A-8940-0F901C526952}" name="Avance" totalsRowFunction="custom" dataDxfId="2">
       <calculatedColumnFormula>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</calculatedColumnFormula>
       <totalsRowFormula>+SUM(Tabla1[Avance])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{56694461-29B6-4DEB-B183-B64D7B410F39}" name="Total actividades" totalsRowFunction="custom">
       <totalsRowFormula>+SUM(Tabla1[Total actividades])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B16F3491-FCB9-44DB-97FD-F594D944B4BB}" name="Avance %" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="0" dataCellStyle="Porcentaje">
+    <tableColumn id="5" xr3:uid="{B16F3491-FCB9-44DB-97FD-F594D944B4BB}" name="Avance %" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</calculatedColumnFormula>
       <totalsRowFormula>Tabla1[[#Totals],[Avance]]/Tabla1[[#Totals],[Total actividades]]</totalsRowFormula>
     </tableColumn>
@@ -720,7 +720,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/raw/Check List Actividades PF - ML.xlsx
+++ b/data/raw/Check List Actividades PF - ML.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salva\Documents\GitHub\ml_default_credit_card_clients\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18472B6E-9C6D-4A3E-8858-A7F37AD5908A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA7359E-3FA8-450B-BA98-D715E8B3AEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{67AF5B1A-1E2B-4CAA-9A64-6693CB82A0D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{67AF5B1A-1E2B-4CAA-9A64-6693CB82A0D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -335,6 +335,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -360,27 +381,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <b/>
       </font>
@@ -402,16 +402,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8943705F-C6D8-4865-AA83-51A9FFC69472}" name="Tabla1" displayName="Tabla1" ref="A1:E39" totalsRowCount="1">
   <autoFilter ref="A1:E38" xr:uid="{8943705F-C6D8-4865-AA83-51A9FFC69472}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{237A710D-016B-4979-9DA7-41FFFD27973E}" name="Actividades" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{0838B906-08D4-41C1-BF83-F676F0BED85A}" name="Estatus" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{91E29D4E-59B1-4C8A-8940-0F901C526952}" name="Avance" totalsRowFunction="custom" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{237A710D-016B-4979-9DA7-41FFFD27973E}" name="Actividades" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{0838B906-08D4-41C1-BF83-F676F0BED85A}" name="Estatus" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{91E29D4E-59B1-4C8A-8940-0F901C526952}" name="Avance" totalsRowFunction="custom" dataDxfId="4">
       <calculatedColumnFormula>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</calculatedColumnFormula>
       <totalsRowFormula>+SUM(Tabla1[Avance])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{56694461-29B6-4DEB-B183-B64D7B410F39}" name="Total actividades" totalsRowFunction="custom">
       <totalsRowFormula>+SUM(Tabla1[Total actividades])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B16F3491-FCB9-44DB-97FD-F594D944B4BB}" name="Avance %" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Porcentaje">
+    <tableColumn id="5" xr3:uid="{B16F3491-FCB9-44DB-97FD-F594D944B4BB}" name="Avance %" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="0" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</calculatedColumnFormula>
       <totalsRowFormula>Tabla1[[#Totals],[Avance]]/Tabla1[[#Totals],[Total actividades]]</totalsRowFormula>
     </tableColumn>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3614DB83-2EAA-491F-9B2C-AF13CF2011A9}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,18 +1134,18 @@
         <v>33</v>
       </c>
       <c r="B22" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" s="7">
         <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1191,18 +1191,18 @@
         <v>36</v>
       </c>
       <c r="B25" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="7">
         <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1210,18 +1210,18 @@
         <v>5</v>
       </c>
       <c r="B26" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="7">
         <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1229,18 +1229,18 @@
         <v>11</v>
       </c>
       <c r="B27" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="7">
         <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1456,7 +1456,7 @@
       <c r="A39" s="1"/>
       <c r="C39">
         <f>+SUM(Tabla1[Avance])</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D39">
         <f>+SUM(Tabla1[Total actividades])</f>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="E39" s="8">
         <f>Tabla1[[#Totals],[Avance]]/Tabla1[[#Totals],[Total actividades]]</f>
-        <v>0.59459459459459463</v>
+        <v>0.70270270270270274</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/Check List Actividades PF - ML.xlsx
+++ b/data/raw/Check List Actividades PF - ML.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salva\Documents\GitHub\ml_default_credit_card_clients\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA7359E-3FA8-450B-BA98-D715E8B3AEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22519E0B-8950-4DF6-B947-A275A8EB48F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{67AF5B1A-1E2B-4CAA-9A64-6693CB82A0D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{67AF5B1A-1E2B-4CAA-9A64-6693CB82A0D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3614DB83-2EAA-491F-9B2C-AF13CF2011A9}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,18 +1248,18 @@
         <v>6</v>
       </c>
       <c r="B28" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" s="7">
         <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1267,18 +1267,18 @@
         <v>7</v>
       </c>
       <c r="B29" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" s="7">
         <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1456,7 +1456,7 @@
       <c r="A39" s="1"/>
       <c r="C39">
         <f>+SUM(Tabla1[Avance])</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D39">
         <f>+SUM(Tabla1[Total actividades])</f>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="E39" s="8">
         <f>Tabla1[[#Totals],[Avance]]/Tabla1[[#Totals],[Total actividades]]</f>
-        <v>0.70270270270270274</v>
+        <v>0.7567567567567568</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/Check List Actividades PF - ML.xlsx
+++ b/data/raw/Check List Actividades PF - ML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salva\Documents\GitHub\ml_default_credit_card_clients\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22519E0B-8950-4DF6-B947-A275A8EB48F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82780C55-FBDA-416A-8B6D-5B67AD0116EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{67AF5B1A-1E2B-4CAA-9A64-6693CB82A0D1}"/>
   </bookViews>
@@ -720,7 +720,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,18 +1286,18 @@
         <v>8</v>
       </c>
       <c r="B30" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" s="7">
         <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1305,18 +1305,18 @@
         <v>12</v>
       </c>
       <c r="B31" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" s="7">
         <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1324,18 +1324,18 @@
         <v>13</v>
       </c>
       <c r="B32" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" s="7">
         <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1343,18 +1343,18 @@
         <v>14</v>
       </c>
       <c r="B33" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" s="7">
         <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1362,18 +1362,18 @@
         <v>15</v>
       </c>
       <c r="B34" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" s="7">
         <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1381,18 +1381,18 @@
         <v>16</v>
       </c>
       <c r="B35" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" s="7">
         <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1400,18 +1400,18 @@
         <v>17</v>
       </c>
       <c r="B36" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" s="7">
         <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1419,18 +1419,18 @@
         <v>9</v>
       </c>
       <c r="B37" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" s="7">
         <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1438,25 +1438,25 @@
         <v>10</v>
       </c>
       <c r="B38" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <f>+IF(Tabla1[[#This Row],[Estatus]]=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" s="7">
         <f>+Tabla1[[#This Row],[Avance]]/Tabla1[[#This Row],[Total actividades]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="C39">
         <f>+SUM(Tabla1[Avance])</f>
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D39">
         <f>+SUM(Tabla1[Total actividades])</f>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="E39" s="8">
         <f>Tabla1[[#Totals],[Avance]]/Tabla1[[#Totals],[Total actividades]]</f>
-        <v>0.7567567567567568</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
